--- a/Emissao/Dados_Emissao/Grades/Grades_agrupadas.xlsx
+++ b/Emissao/Dados_Emissao/Grades/Grades_agrupadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1057"/>
+  <dimension ref="A1:C1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATUAL PIRACICABANA ADM E CORR</t>
+          <t>ATUAL PIRACICABANA ADM E COR DE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MUNDIAL PLUS CORRETORA DE SEGS L</t>
+          <t>MUNDIAL PLUS CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRINCA ADM E CORRETORA DE SEG LT</t>
+          <t>VERAO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>VERAO CORRETORA DE SEGUROS LTDA</t>
+          <t>VIA HIT CORR DE SEGS S/S LTDA</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>VIA HIT CORR DE SEGS S/S LTDA</t>
+          <t>VITORIA S PINHAL ADM CORR SEG LT</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>VITORIA S PINHAL ADM CORR SEG LT</t>
+          <t>AGILIZE BRASIL CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Beatriz dos Santos Leite do Prado</t>
+          <t>Carlos Lyogi Ityanagui</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>AGILIZE BRASIL CORRETORA DE SEGU</t>
+          <t>ALESSAT CORRETORA DE SEGUROS E C</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ALESSAT CORRETORA DE SEGUROS E C</t>
+          <t>ALIANZA BRASIL CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ALIANZA BRASIL CORRETORA DE SEGU</t>
+          <t>ALMA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ALMA CORRETORA DE SEGUROS LTDA</t>
+          <t>ANA CELIA PRIME CORR SEG LTDA</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ANA CELIA PRIME CORR SEG LTDA</t>
+          <t>ANNA REAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ANNA REAL CORRETORA DE SEGUROS L</t>
+          <t>AOL CORRETORA DE SEGUROS S/C LTD</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AOL CORRETORA DE SEGUROS S/C LTD</t>
+          <t>ART MACHADO CORR DE SEG LTDA ME</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ART MACHADO CORR DE SEG LTDA ME</t>
+          <t>BIFFE ALVES CONSULTORIA EMPRESAR</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BIFFE ALVES CONSULTORIA EMPRESAR</t>
+          <t>BOMSUCESSO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>BOMSUCESSO COR DE SEGS LTDA</t>
+          <t>CEFLA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CEFLA CORRETORA DE SEGUROS LTDA</t>
+          <t>CRIVELIN FRANCO ADM.COR.SEG.LTDA</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>CRIVELIN FRANCO ADM.COR.SEG.LTDA</t>
+          <t>ERON CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ERON CORRETORA DE SEGUROS LTDA</t>
+          <t>FURLAN &amp; PEREIRA COR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FURLAN &amp; PEREIRA COR DE SEGS LTD</t>
+          <t>GRACAR CORRETORA DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>GRACAR CORRETORA DE SEGS LTDA ME</t>
+          <t>GRANDES LAGOS ADM CONS E COR SEG</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>GRANDES LAGOS ADM CONS E COR SEG</t>
+          <t>IBEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>IBEL CORRETORA DE SEGUROS LTDA</t>
+          <t>INACIUS ADM E CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>INACIUS ADM E CORR DE SEGS LTDA</t>
+          <t>INOVALI CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>INOVALI CORRETORA DE SEGUROS LTD</t>
+          <t>ISEG - CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ISEG - CORRETORA DE SEGUROS LTDA</t>
+          <t>J JERVAIS &amp; NARDINI CORR DE SEG</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>J JERVAIS &amp; NARDINI CORR DE SEG</t>
+          <t>KAINAN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>KAINAN CORRETORA DE SEGUROS LTDA</t>
+          <t>LANJONI CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LANJONI CORR DE SEGUROS LTDA</t>
+          <t>LLOYD CONTINENTAL COR SEGS LTDA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>LLOYD CONTINENTAL COR SEGS LTDA</t>
+          <t>MAGMA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MAGMA CORRETORA DE SEGUROS LTDA</t>
+          <t>MAJESKI CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MAJESKI CORRETORA DE SEGUROS LTD</t>
+          <t>MANZANARES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MANZANARES CORRETORA DE SEGUROS</t>
+          <t>MARILDA APARECIDA CORRETORA DE S</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MARILDA APARECIDA CORRETORA DE S</t>
+          <t>MASB SILVEIRA CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MASB SILVEIRA CORRETORA DE SEGUR</t>
+          <t>MGC AMCARSEG RIO PRETO CORR DE S</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MGC AMCARSEG RIO PRETO CORR DE S</t>
+          <t>NELSON CRED COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>NELSON CRED COR DE SEGS LTDA</t>
+          <t>NEWTONS COR.DE SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NEWTONS COR.DE SEGS.S/C LTDA</t>
+          <t>ORIVALDO CORRETAGEM DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ORIVALDO CORRETAGEM DE SEGS LTDA</t>
+          <t>PATRICIA DA S B DE PAULA REPRESE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PATRICIA DA S B DE PAULA REPRESE</t>
+          <t>PETROLI CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PETROLI CORR DE SEGUROS LTDA</t>
+          <t>PIACENTE ADM.E COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PIACENTE ADM.E COR.DE SEGS.LTDA</t>
+          <t>PIACENZO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PIACENZO CORRETORA DE SEGUROS LT</t>
+          <t>POSSOGNOLO &amp; GIMENES COR DE SEGS</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>POSSOGNOLO &amp; GIMENES COR DE SEGS</t>
+          <t>POUPASEG CORRETORA DE SEGUROS EI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>POUPASEG CORRETORA DE SEGUROS EI</t>
+          <t>PREMIUMM FACIL COR E CONSULT DE</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PREMIUMM FACIL COR E CONSULT DE</t>
+          <t>PRESTIGIO COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PRESTIGIO COR.DE SEGUROS LTDA</t>
+          <t>REQUINTE BIGUI CORRET DE SEGS LT</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>REQUINTE BIGUI CORRET DE SEGS LT</t>
+          <t>ROMERO &amp; DAVID CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ROMERO &amp; DAVID CORRETORA DE SEGU</t>
+          <t>ROSI DELLATORRE ADMINISTRADORA E</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ROSI DELLATORRE ADMINISTRADORA E</t>
+          <t>SALIONI CORRETORA DE SEGUROS SOC</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SALIONI CORRETORA DE SEGUROS SOC</t>
+          <t>SEGHURA-ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SEGHURA-ADM E COR DE SEGS LTDA</t>
+          <t>SERGIO HENRIQUE CURTI</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SERGIO HENRIQUE CURTI</t>
+          <t>SHIFT CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SHIFT CORRETORA DE SEGUROS S/S L</t>
+          <t>SHIRTESEG CORR SEGS ADM CONSULT</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SHIRTESEG CORR SEGS ADM CONSULT</t>
+          <t>SINAMED CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SINAMED CORRETORA DE SEGUROS LTD</t>
+          <t>SP MARQUES CORR. SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SP MARQUES CORR. SEGUROS LTDA.</t>
+          <t>STC PLUS CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>STC PLUS CORRETORA DE SEGUROS LT</t>
+          <t>TABARELI OLIVEIRA CORRETORA DE S</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TABARELI OLIVEIRA CORRETORA DE S</t>
+          <t>TASSA CORRETORA DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TASSA CORRETORA DE SEGS LTDA</t>
+          <t>TRUZZI CORR DE SEGS SC LTDA</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TRUZZI CORR DE SEGS SC LTDA</t>
+          <t>VALDIR CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>VALDIR CORRETORA DE SEGUROS LTDA</t>
+          <t>Veatseg Corretora de Seguros Ltd</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Veatseg Corretora de Seguros Ltd</t>
+          <t>Vuelo Solucoes Corretora de Segu</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Vuelo Solucoes Corretora de Segu</t>
+          <t>A.C.A. JARDINOPOLIS COR.DE SEGS.</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Carlos Lyogi Ityanagui</t>
+          <t>Daniela Bindandi Dandolo</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A.C.A. JARDINOPOLIS COR.DE SEGS.</t>
+          <t>ABC INDENIZA ADM COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ABC INDENIZA ADM COR DE SEG LTDA</t>
+          <t>AEX CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>AEX CORRETORA DE SEGUROS LTDA</t>
+          <t>ALGUICAR ADMINISTRADORA E CORRET</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ALGUICAR ADMINISTRADORA E CORRET</t>
+          <t>ALIANCE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ALIANCE CORRETORA DE SEGUROS LTD</t>
+          <t>APPEL &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>APPEL &amp; MACHADO CORRETORA DE SEG</t>
+          <t>B &amp; B CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>B &amp; B CORRETORA DE SEGUROS S/S L</t>
+          <t>BARSOTTI CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BARSOTTI CORRETORA DE SEGUROS LT</t>
+          <t>BNW ASSES CONSULT CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>BNW ASSES CONSULT CORR SEGS LTDA</t>
+          <t>BONESSO &amp; CARVALHO COR ADM SEGS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>BONESSO &amp; CARVALHO COR ADM SEGS</t>
+          <t>BPA CORRETORA DE SEGS S/S LTDA</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BPA CORRETORA DE SEGS S/S LTDA</t>
+          <t>CN3 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CN3 CORRETORA DE SEGUROS LTDA</t>
+          <t>COMPAQ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>COMPAQ CORRETORA DE SEGUROS LTDA</t>
+          <t>CONECTASEG CORR DE SEGS E CONSOR</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CONECTASEG CORR DE SEGS E CONSOR</t>
+          <t>CONTEC CORR SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>CONTEC CORR SEGUROS LTDA</t>
+          <t>CP8 CORRETORA DE SEGUROS LTDA-ME</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>CP8 CORRETORA DE SEGUROS LTDA-ME</t>
+          <t>CRISTIANE APARECIDA REIS PEREIRA</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>CRISTIANE APARECIDA REIS PEREIRA</t>
+          <t>DUOMAGA SEGUROS E ASSESSORIA LTD</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DUOMAGA SEGUROS E ASSESSORIA LTD</t>
+          <t>E R M DE OLIVEIRA COR DE SEGS EP</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>E R M DE OLIVEIRA COR DE SEGS EP</t>
+          <t>ECRAN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECRAN CORRETORA DE SEGUROS LTDA</t>
+          <t>F A P DE MORAES CORR DE SEGS</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>F A P DE MORAES CORR DE SEGS</t>
+          <t>FMS CORR. DE SEGUROS EIRELI-ME</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FMS CORR. DE SEGUROS EIRELI-ME</t>
+          <t>FRANCHI AGASSI SOLUTION LTDA</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FRANCHI AGASSI SOLUTION LTDA</t>
+          <t>GARANTISEG CORRETAGEM DE SEGUROS</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>GARANTISEG CORRETAGEM DE SEGUROS</t>
+          <t>HERMANO'S COR.DE SEGS.SC LTDA</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>HERMANO'S COR.DE SEGS.SC LTDA</t>
+          <t>IHOME CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>IHOME CORRETORA DE SEGUROS LTDA</t>
+          <t>JAPURA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>JAPURA CORRETORA DE SEGUROS LTDA</t>
+          <t>KAPSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>KAPSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>MACHADO CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>MACHADO CORRETORA DE SEGUROS LTD</t>
+          <t>MARCIO MUSSI GOMES CORRETORA DE</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>MARCIO MUSSI GOMES CORRETORA DE</t>
+          <t>MASSA CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>MASSA CORR DE SEGUROS LTDA</t>
+          <t>MASSON ADM CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>MASSON ADM CORR SEGS LTDA</t>
+          <t>MEDIACAO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>MEDIACAO CORRETORA DE SEGUROS LT</t>
+          <t>MORANDO E MORANDO SERV TRANS DOC</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>MORANDO E MORANDO SERV TRANS DOC</t>
+          <t>MURILO MARTELLI SOARES DA SILVA</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>MURILO MARTELLI SOARES DA SILVA</t>
+          <t>NUNES CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NUNES CORRETORA DE SEGUROS LTDA</t>
+          <t>ORZUS CAPITAL CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ORZUS CAPITAL CORRETORA DE SEGUR</t>
+          <t>OSTENTASEG ADM E COR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>OSTENTASEG ADM E COR DE SEGS LTD</t>
+          <t>PATRICIA CARLA BARRETO DE FRANCE</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PATRICIA CARLA BARRETO DE FRANCE</t>
+          <t>PAULO SERGIO DEVITO</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAULO SERGIO DEVITO</t>
+          <t>PAUTA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PAUTA CORRETORA DE SEGUROS LTDA</t>
+          <t>PRIMOROSA CORR.SEGUROS S/C LTDA.</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>PRIMOROSA CORR.SEGUROS S/C LTDA.</t>
+          <t>QI CORRETORA DE SEGUROS EIRELE -</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>QI CORRETORA DE SEGUROS EIRELE -</t>
+          <t>RESENDE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>RESENDE CORR DE SEGUROS LTDA</t>
+          <t>RICARDO CURI CORR ADM SEGS LTDA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>RICARDO CURI CORR ADM SEGS LTDA</t>
+          <t>RIPRESA COR. DE SEGS. LTDA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>RIPRESA COR. DE SEGS. LTDA</t>
+          <t>RONI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>RONI CORRETORA DE SEGUROS LTDA</t>
+          <t>ROTGER ADM CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ROTGER ADM CORR DE SEGUROS LTDA</t>
+          <t>ROTTA EXECUTIVA CORR SEGUROS LTD</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ROTTA EXECUTIVA CORR SEGUROS LTD</t>
+          <t>SALFER CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SALFER CORRETORA DE SEGUROS LTDA</t>
+          <t>SELECTRP CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SELECTRP CORRETORA DE SEGUROS LT</t>
+          <t>SERGIO DA SILVA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SERGIO DA SILVA</t>
+          <t>SUPERSEG COR.DE SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SUPERSEG COR.DE SEGS.S/C LTDA</t>
+          <t>TAM SEG CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TAM SEG CORRETORA DE SEGUROS LTD</t>
+          <t>TIMESEG CORRETORA DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TIMESEG CORRETORA DE SEGS LTDA</t>
+          <t>TREVISO CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TREVISO CORRETORA DE SEGUROS LTD</t>
+          <t>TRINCA ADM E CORRETORA DE SEG LT</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>EDSON NOBUYUKI KAWAUCHI</t>
+          <t>EDILAINE RENATA DA SILVA ANDRADE</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ELZA HARUMI AKAMATSU CORRETORA</t>
+          <t>EDSON NOBUYUKI KAWAUCHI</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>FROIS CORRETORA DE SEGUROS LTDA</t>
+          <t>ELZA HARUMI AKAMATSU CORRETORA</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>GUELFI ADM E COR SEGUROS LTDA</t>
+          <t>FROIS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>IBIUNA ADM CORR SEGS VIDA LTDA</t>
+          <t>GUELFI ADM E COR SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>J C FLORIANO CORRETORA SEGUROS</t>
+          <t>IBIUNA ADM CORR SEGS VIDA LTDA</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>LACAM CORR DE SEGUROS LTDA ME</t>
+          <t>J C FLORIANO CORRETORA SEGUROS</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>LAFEL CORRETORA DE SEGUROS LTDA</t>
+          <t>LACAM CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>LORENZETTI CORR.SEGUROS S/C LTDA</t>
+          <t>LAFEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>M.R.S.L CORRETORA DE SEGUROS LTD</t>
+          <t>LORENZETTI CORR.SEGUROS S/C LTDA</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>M.V. CORRETORA DE SEGUROS LTDA.</t>
+          <t>M.R.S.L CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MARCIO ALVES</t>
+          <t>M.V. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MARQUES E MERCHIAN CORR SEGS LTD</t>
+          <t>MARCIO ALVES</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MUNDI CORRETORA DE SEGUROS LTDA</t>
+          <t>MARQUES E MERCHIAN CORR SEGS LTD</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NOVARAH PLUS CORRETORA DE SEGURO</t>
+          <t>MUNDI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>OCASIONAL CORRETORA DE SEGUROS L</t>
+          <t>NOVARAH PLUS CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>OPEC CORRETORA DE SEGUROS LTDA</t>
+          <t>OCASIONAL CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PINHO CORRETORA DE SEGUROS EIREL</t>
+          <t>OPEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>RW1 CORRETORA DE SEGUROS EIRELI</t>
+          <t>PINHO CORRETORA DE SEGUROS EIREL</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SCAPOL SERV DE ADM E CORR DE SEG</t>
+          <t>RW1 CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>SERGINHO COR. SEGS S/C LTDA.</t>
+          <t>SCAPOL SERV DE ADM E CORR DE SEG</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>UNIMEDAVARE CORRETORA DE SEGUROS</t>
+          <t>SERGINHO COR. SEGS S/C LTDA.</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>WPS CORRETORA DE SEGUROS LTDA</t>
+          <t>UNIMEDAVARE CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -6826,12 +6826,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>A C CARRARO COR DE SEGS LTDA</t>
+          <t>WPS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Isabella Cristina Camilo Lima Castelli</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ADEMAIS CORR DE SEGS LTDA ME</t>
+          <t>ADRIANA MESSIAS CORR SEGS LTDA M</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ADP ASSESSORIA E CORR DE SEGS LT</t>
+          <t>ADSEG CORRETORA DE SEGUROS EIREL</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>AMARILDO MAIA COR DE SEGS LTDA</t>
+          <t>ALIANCA ADMR CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ARKOS CORRETORA DE SEGUROS LTDA</t>
+          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>BER CORRETORA E ADMINISTRADORA D</t>
+          <t>ANCRISA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6916,12 +6916,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>BHADRATI CORRETORA DE SEGUROS LT</t>
+          <t>AS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BIANCO SANTAROSA CORR SEGS LTDA</t>
+          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO GALLO</t>
+          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CASTRO E HACKMAM CORR DE SEGS E</t>
+          <t>BENEVOLA CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CLARIAN CONSULTORIA E COR DE SEG</t>
+          <t>BOM CAMINHO CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CONSTRUSEG NE2 CORR DE SEGUROS L</t>
+          <t>BRANKO MARQUES COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>DASCOLI COR DE SEGS LTDA-ME</t>
+          <t>CAPINTER ADM CORR SEG LTDA</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7021,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>DILIGENTE CORR DE SEGS LTDA</t>
+          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>DUDAX CORRETORA DE SEGUROS LTDA</t>
+          <t>CHIQUETTO CORRETORA DE SEGUROS E</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7051,12 +7051,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>EMINENTE COR DE SEGS LTDA</t>
+          <t>CMARTINEZ CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7066,12 +7066,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ESTRELA DE AMERICANA COR DE SEGS</t>
+          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Evoluti Corretora e Adm de Segur</t>
+          <t>COMPRO-SEG ADMR.CORR.SEGS.LTDA.</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7096,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>FABIANA MINARRO CORR SEGS PLANOS</t>
+          <t>D E I LOPES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>FIDELITY ASS E CORR DE SEG LTDA</t>
+          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>FIUZA CORRETORA DE SEGUROS LTDA</t>
+          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>FNL ADMINISTRACAO E CORRETAGEM D</t>
+          <t>ESTEVES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>FRANCISCO MARCILIO DE SOUSA</t>
+          <t>EUROCRED MIRASSOL CORR DE SEGS</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>FSN CORR DE SEG E PREV LTDA ME</t>
+          <t>FERRANTI CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>G E P BORGES CORR E ASS DE SGS L</t>
+          <t>FLAMA ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>GABRIELA ANGEL DE JESUS RIBEIRO</t>
+          <t>FUZZARI COR E ADM SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>GOLD SEGUROS CORRETAGEM E ADM</t>
+          <t>FUZZASEG CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>GUILHERME SALLES RODRIGUES DA SI</t>
+          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>IDA CRISTINA DELLA BRUNA CORR DE</t>
+          <t>HAZO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>IGMF CORRETORA DE SEGUROS LTDA</t>
+          <t>IBLF ADM.E CORRETORA SEGS.SC LT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>J.R PHAROL ADM E COR DE SEGS LTD</t>
+          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>JOSE APARECIDO BERTONI SIERRA</t>
+          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>JOSE CARLOS MARTINS DE OLIVEIRA</t>
+          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>KAREN KATHERINE GOMES DE OLIVEIR</t>
+          <t>M D J CONSULT &amp; COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>KLEBER CORR SEGUROS</t>
+          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>LIFE OF DREAMS COR SEGS VIDA LTD</t>
+          <t>MARCOS ROBERTO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7366,12 +7366,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>LIFT UP CORRETORA DE SEGUROS LTD</t>
+          <t>MULTILINK CORR E ADMR DE SEGS LT</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7381,12 +7381,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>LIVI CORRETORA DE SEGUROS</t>
+          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>LUAR CORR DE SEGUROS LTDA ME</t>
+          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>LUCAS SORAN DA SILVA</t>
+          <t>NDP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7426,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>LUCIANA ALVES DE OLIVEIRA</t>
+          <t>NOVA MIRASSOL CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7441,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>LUIZ FERNANDO DE S C CORR DE SEG</t>
+          <t>ONO &amp; SHINYA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>MANOEL DONIZETI GOMES</t>
+          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>MARIANA FURIO DE WIT COR DE SGS</t>
+          <t>PATRICIA MARIA CAVARIANI ME</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>MBCOR CORRETORA DE SEGS LTDA ME</t>
+          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7501,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MIG FARIAS CORRETORA E ADM DE SE</t>
+          <t>PERUCCHI CORRET DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>MORADA DO VERDE CORR DE SEGS LTD</t>
+          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NOVA ASTRE ADM E CORR SEGS LTDA</t>
+          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NOVO SECULO ADM E COR DE SEGS LT</t>
+          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>PANOBIANCO &amp; PAVAN CORR DE SEGUR</t>
+          <t>RISSI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>PAULIMETA CORRETORA DE SEGUROS L</t>
+          <t>S P FRANCO CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7591,12 +7591,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>R'NAVES CORRETORA DE SEGUROS LTD</t>
+          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>RENZETI CORR DE SEGS LTDA ME</t>
+          <t>SEGURANCA ADMR.E CORR.SEGS.LTDA.</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>RIMISA CORR.DE SEGUROS S/C LTDA.</t>
+          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>RO SEGMAIS ASSESSORIA DE CORR DE</t>
+          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ROBER CORRETORA DE SEGUROS</t>
+          <t>TOTALIS CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ROBERTO SALLES FRAZATTO</t>
+          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ROSE BENDILATTI CORR DE SEGS LTD</t>
+          <t>UNICA MENEZES ASSES ADM COR SEG</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SEGTRANS CORR DE SEGS LTDA ME</t>
+          <t>VALDIR DECCO</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7711,12 +7711,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SOUZAS CORRETORA DE SEGUROS LTDA</t>
+          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7726,12 +7726,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>UNIAO PAULISTA COR E ADM DE SEGS</t>
+          <t>VITURI E PALMA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Leonardo Torrezan Bataiola</t>
         </is>
       </c>
     </row>
@@ -7741,12 +7741,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>VECON COR DE SEGS LTDA</t>
+          <t>AC2S CORRET DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>VIZZIA CONSULT SERV E COR DE SEG</t>
+          <t>ALEFERR CONSULTORIA E CORRETORA</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7771,12 +7771,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>WJP CORR SEGS LTDA</t>
+          <t>ALEX PEREIRA DA SILVA</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Kelly Godoy Coelho</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7786,12 +7786,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>ADRIANA MESSIAS CORR SEGS LTDA M</t>
+          <t>ANGELITO ALVES PEQUENO</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ADSEG CORRETORA DE SEGUROS EIREL</t>
+          <t>ANTONIO DE TOLOSA CASTRO E SILVA</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ALIANCA ADMR CORR SEGS LTDA</t>
+          <t>BCL ADM.E COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7831,12 +7831,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>AMBRIZZI ADM ASSES.COR DE SEG RA</t>
+          <t>BIA COSTA CORR SEGS BENEFICIOS E</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7846,12 +7846,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ANCRISA CORRETORA DE SEGUROS LTD</t>
+          <t>BLACK BELT COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7861,12 +7861,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>AS CORRETORA DE SEGUROS LTDA</t>
+          <t>BLW NEWS CORRETORA SEGS LTDA</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7876,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>BALURA CORRETORA DE SEGUROS LTDA</t>
+          <t>CELESTE E CELESTE VALE COR SEGS</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7891,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>BEMVIDA CORR DE SEGUROS LTDA ME</t>
+          <t>CONTASEG CORRETORA SEG S/C LTDA</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7906,12 +7906,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>BENEVOLA CORRETORA DE SEGUROS LT</t>
+          <t>CONTECOTE ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>BOM CAMINHO CORRETORA DE SEGUROS</t>
+          <t>COSTA MARINA CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>BRANKO MARQUES COR DE SEG LTDA</t>
+          <t>CRISTIANE DOS SANTOS SAMPAIO</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>CAPINTER ADM CORR SEG LTDA</t>
+          <t>CUNHA &amp; CUNHA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CARLA IMEDIATTA CORRETORA DE SEG</t>
+          <t>DELTA LIDER CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7981,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>CHIQUETTO CORRETORA DE SEGUROS E</t>
+          <t>DERENCIUS CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -7996,12 +7996,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>CMARTINEZ CORRETORA DE SEGUROS L</t>
+          <t>DSG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>COLAVITE ADMR.COR.SEG.S/C LTDA.</t>
+          <t>EDNILSON CARDOSO</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8026,12 +8026,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>COMPRO-SEG ADMR.CORR.SEGS.LTDA.</t>
+          <t>EKONORTE CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8041,12 +8041,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>D E I LOPES CORRETORA DE SEGUROS</t>
+          <t>ESPACO CORR - CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>DECCO CORRETORA SEG FERNANDOPOLI</t>
+          <t>FAMILLE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8071,12 +8071,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>DECISAO ADM.E CORR.SEGS.S/C LTDA</t>
+          <t>FLAVIO AIRES O R CORR DE SEGS EI</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8086,12 +8086,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ESTEVES CORRETORA DE SEGUROS</t>
+          <t>GATI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8101,12 +8101,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>EUROCRED MIRASSOL CORR DE SEGS</t>
+          <t>GODEVALE COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8116,12 +8116,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>FERRANTI CORRETORA DE SEGUROS LT</t>
+          <t>JULIANA DE OLIVEIRA MARCONDES</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>FLAMA ADM E COR DE SEGS LTDA</t>
+          <t>JULIO VAZ - COR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8146,12 +8146,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>FUZZARI COR E ADM SEGS LTDA ME</t>
+          <t>KADIMA SEGUROS CONSULT E CORRETA</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>FUZZASEG CORRETORA DE SEGUROS LT</t>
+          <t>L.A. SALES BELIZZE ADM</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8176,12 +8176,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>GISAIELO CORRETORA DE SEGUROS LT</t>
+          <t>LUI FRANZ GHISSI</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8191,12 +8191,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>HAZO CORRETORA DE SEGUROS LTDA</t>
+          <t>MANCIN SILVA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8206,12 +8206,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>IBLF ADM.E CORRETORA SEGS.SC LT</t>
+          <t>MARIA LUCIA FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8221,12 +8221,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IDEAL CORR SEGS FERNANDÓPOLIS LT</t>
+          <t>MARQUES &amp; MORAES CORR DE SEGS LT</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8236,12 +8236,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IMEDIATTA CORR DE SEGUROS DE JAL</t>
+          <t>MENDES MI ADM E CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8251,12 +8251,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>J A S NHANDEARA COR DE SEGS LTDA</t>
+          <t>MERITUZ CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8266,12 +8266,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>M D J CONSULT &amp; COR DE SEGS LTDA</t>
+          <t>MOAB SOUZA OLIVEIRA CORRETORA DE</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8281,12 +8281,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>M.M.S. COR DE SEGS S/C LTDA ME</t>
+          <t>MURASEG CORR DE SEGS LTDA-ME</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8296,12 +8296,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>MARCOS ROBERTO DE OLIVEIRA</t>
+          <t>NADIA BARRETO DE O FERNANDES COR</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>MULTILINK CORR E ADMR DE SEGS LT</t>
+          <t>NFG ADM. E COR. DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8326,12 +8326,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>MURIEL ADM E CORRETORA DE SEGURO</t>
+          <t>NOSSA SUPERATIVA COR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8341,12 +8341,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>MURIEL PREV COR.DE SEGUROS LTDA</t>
+          <t>NOVE DE JULHO CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8356,12 +8356,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NDP CORRETORA DE SEGUROS LTDA</t>
+          <t>PERGULA MARINA ADMINISTRADORA E</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NOVA MIRASSOL CORRETORA DE SEGUR</t>
+          <t>PORTO LIVRE CORR E ADM DE SEGS E</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>ONO &amp; SHINYA CORRETORA DE SEGURO</t>
+          <t>PORTO LOCAL COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>PANTANO CORRETORA SEGUROS LTDA M</t>
+          <t>RODRIGO FERNANDES LOBO COR SEGS</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8416,12 +8416,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>PATRICIA MARIA CAVARIANI ME</t>
+          <t>RONCONI E REZENDE ADM E CORR SEG</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8431,12 +8431,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>PAZ GLOBAL CORRETORA DE SEGUROS</t>
+          <t>SANINI ADM CORR SEGS S/C LTDA</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8446,12 +8446,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>PERUCCHI CORRET DE SEGS LTDA</t>
+          <t>SANTO SAURO NETO</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8461,12 +8461,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>PIERRE CORRETORA E ADM DE SEGURO</t>
+          <t>SAUL LUCIO DIAS</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>PROSSEG COR DE SEGS FERNANDOPOLI</t>
+          <t>SCORPIU'S COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>RAVANA ADM, CONS E CORRET DE SEG</t>
+          <t>SINTONIA TOTAL ADM COR SEG LTDA</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8506,12 +8506,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>RISSI CORRETORA DE SEGUROS LTDA</t>
+          <t>STELA FRANZEN ADM E COR DE SEGS</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8521,12 +8521,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>S P FRANCO CORRETORA DE SEGUROS</t>
+          <t>UCHA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8536,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SEARA CORRETORA DE SEGUROS LTDA</t>
+          <t>UYARA SEGUROS ADM E CORR DE SEGS</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>SEGURANCA ADMR.E CORR.SEGS.LTDA.</t>
+          <t>VALE BENEFICIOS CORRET DE SEG LT</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>SEGUROESTE CORR.DE SEGS.S/C LTDA</t>
+          <t>VALESEG CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>TOTAL SUPORT COR DE SEGS E CONS</t>
+          <t>VIA VALE CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8596,12 +8596,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>TOTALIS CORRETORA DE SEGUROS LTD</t>
+          <t>W1 CORR SGRS LTDA</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Lucas Camargo de Araújo</t>
         </is>
       </c>
     </row>
@@ -8611,12 +8611,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>TUTA ADM E CORR DE SEGS SC LTDA</t>
+          <t>A NASCIMENTO CALTABIANO CORRETOR</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8626,12 +8626,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>UNICA MENEZES ASSES ADM COR SEG</t>
+          <t>ADILSON DE SOUZA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>VALDIR DECCO</t>
+          <t>ADRIANO DE PROSPERO</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8656,12 +8656,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>VILAR CORRETORA DE SEGUROS LTDA</t>
+          <t>AGILTEC ADM E CORR DE SEGUROS EI</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8671,12 +8671,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>VITURI E PALMA CORRETORA DE SEG</t>
+          <t>AIJ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Leonardo Torrezan Bataiola</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8686,12 +8686,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>AC2S CORRET DE SEGUROS LTDA</t>
+          <t>AJSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8701,12 +8701,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ALEFERR CONSULTORIA E CORRETORA</t>
+          <t>ALESSANDRA JANSONIS MARCUZ SILVA</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8716,12 +8716,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>ALEX PEREIRA DA SILVA</t>
+          <t>ALL PROTECTION CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8731,12 +8731,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ANGELITO ALVES PEQUENO</t>
+          <t>ALLEGRO CORRETORA DE SEGUROS EM</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8746,12 +8746,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ANTONIO DE TOLOSA CASTRO E SILVA</t>
+          <t>ANA NATALINA REINER</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8761,12 +8761,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>BCL ADM.E COR.DE SEGS.LTDA</t>
+          <t>ANDERSON ULISSES DAS CHAGAS</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8776,12 +8776,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>BIA COSTA CORR SEGS BENEFICIOS E</t>
+          <t>ASURANSI CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8791,12 +8791,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>BLACK BELT COR.DE SEGS.LTDA</t>
+          <t>ATISEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8806,12 +8806,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>BLW NEWS CORRETORA SEGS LTDA</t>
+          <t>AVANTI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>CELESTE E CELESTE VALE COR SEGS</t>
+          <t>B&amp;B CORRETORA DE SEGUROS GERAIS</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8836,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>CONTASEG CORRETORA SEG S/C LTDA</t>
+          <t>BACCI E FERMINO CORR DE SEGUROS</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8851,12 +8851,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>CONTECOTE ADM E COR DE SEGS LTDA</t>
+          <t>BARRETO E BIZARRO CORRETORA DE S</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8866,12 +8866,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>COSTA MARINA CORR DE SEGS LTDA</t>
+          <t>BARROS E CYPRIANO ADM E CORR DE</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>CRISTIANE DOS SANTOS SAMPAIO</t>
+          <t>BR ESTATE CONSULTORIA IMOBILIARI</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8896,12 +8896,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>CUNHA &amp; CUNHA COR DE SEGS LTDA</t>
+          <t>CARDOSO E FILHO CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>DELTA LIDER CORRETORA DE SEGUROS</t>
+          <t>CARLOS ALBERTO DA SILVA COSTA</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8926,12 +8926,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>DERENCIUS CORR DE SEGUROS LTDA</t>
+          <t>CARLOS APARECIDO RIBEIRO</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8941,12 +8941,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>DSG CORRETORA DE SEGUROS LTDA</t>
+          <t>CASTRO E PIRANE COR SEGS VIDA</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8956,12 +8956,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>EDNILSON CARDOSO</t>
+          <t>CKS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>EKONORTE CORRETORA DE SEGUROS LT</t>
+          <t>CLIENSEG COR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -8986,12 +8986,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ESPACO CORR - CORRETORA DE SEGUR</t>
+          <t>COLUMBIA CORRETORA DE SEGUROS SS</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9001,12 +9001,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>FAMILLE CORRETORA DE SEGUROS LTD</t>
+          <t>CORPORATE CARTAGENA ADMINISTRADO</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9016,12 +9016,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>FLAVIO AIRES O R CORR DE SEGS EI</t>
+          <t>CORRET, DE SEGS BEST ESTILO LTDA</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>GATI CORRETORA DE SEGUROS LTDA</t>
+          <t>COSTA E CAOVILA COR DE SEGUROS L</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9046,12 +9046,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>GODEVALE COR DE SEGS LTDA</t>
+          <t>CS - ADMINISTRACAO E CORRETORA D</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9061,12 +9061,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>JULIANA DE OLIVEIRA MARCONDES</t>
+          <t>DALAVA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9076,12 +9076,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>JULIO VAZ - COR DE SEGUROS LTDA</t>
+          <t>DE GENNARO &amp; PAVANELLI G.S.C.S.P</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9091,12 +9091,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>KADIMA SEGUROS CONSULT E CORRETA</t>
+          <t>DELA MARTA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9106,12 +9106,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>L.A. SALES BELIZZE ADM</t>
+          <t>DODA PIVA COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>LUI FRANZ GHISSI</t>
+          <t>DRIKA PIRES COR DE SEGS VIDA LT</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9136,12 +9136,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>MANCIN SILVA CORRETORA DE SEGURO</t>
+          <t>DY CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9151,12 +9151,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>MARIA LUCIA FERREIRA DA SILVA</t>
+          <t>EDINETE CRISTIANE SEPRESSE PRETE</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>MARQUES &amp; MORAES CORR DE SEGS LT</t>
+          <t>EDISON JOSE CORREA</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9181,12 +9181,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>MENDES MI ADM E CORR SEGS LTDA</t>
+          <t>ELOSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9196,12 +9196,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>MERITUZ CORRETORA DE SEGUROS LTD</t>
+          <t>EXERCE CONS CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9211,12 +9211,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>MOAB SOUZA OLIVEIRA CORRETORA DE</t>
+          <t>EXODO CONFIANCA CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9226,12 +9226,12 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>MURASEG CORR DE SEGS LTDA-ME</t>
+          <t>EXP HAUS CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NADIA BARRETO DE O FERNANDES COR</t>
+          <t>EXPERTISE CONSULTORIA E CORRETAG</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9256,12 +9256,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NFG ADM. E COR. DE SEGS LTDA</t>
+          <t>F P DE SOUZA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>NOSSA SUPERATIVA COR DE SEGS LTD</t>
+          <t>FAMA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9286,12 +9286,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NOVE DE JULHO CORR DE SEGS LTDA</t>
+          <t>FARIA COR DE SEG E PLANOS DE SAU</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9301,12 +9301,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>PERGULA MARINA ADMINISTRADORA E</t>
+          <t>FERNANDA DE CARVALHO BRAGA</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9316,12 +9316,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>PORTO LIVRE CORR E ADM DE SEGS E</t>
+          <t>FERNANDO FELIPE CORREA TAVARES</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9331,12 +9331,12 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>PORTO LOCAL COR.DE SEGS.LTDA</t>
+          <t>FORMAGGIO ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9346,12 +9346,12 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>RODRIGO FERNANDES LOBO COR SEGS</t>
+          <t>FOSTER CORR DE SEGS E SERVICOS F</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9361,12 +9361,12 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>RONCONI E REZENDE ADM E CORR SEG</t>
+          <t>FRANCISCO CARLOS NUNES DE OLIVEI</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9376,12 +9376,12 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SANINI ADM CORR SEGS S/C LTDA</t>
+          <t>GERSON DOS SANTOS PAIVA</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9391,12 +9391,12 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>SANTO SAURO NETO</t>
+          <t>GHRANERO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9406,12 +9406,12 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>SAUL LUCIO DIAS</t>
+          <t>GILIOLI &amp; ROSA COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SCORPIU'S COR DE SEGS LTDA</t>
+          <t>GOIS CONS E CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9436,12 +9436,12 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>SINTONIA TOTAL ADM COR SEG LTDA</t>
+          <t>GR ATIBAIA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>STELA FRANZEN ADM E COR DE SEGS</t>
+          <t>HERMES DAGOBERTO MOLINARI</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9466,12 +9466,12 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>UCHA CORRETORA DE SEGUROS LTDA</t>
+          <t>IMPERIO BRASIL CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9481,12 +9481,12 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>UYARA SEGUROS ADM E CORR DE SEGS</t>
+          <t>INNOVACCI CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9496,12 +9496,12 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>VALE BENEFICIOS CORRET DE SEG LT</t>
+          <t>IVAN FURLAN</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>VALESEG CORRETORA DE SEGUROS LTD</t>
+          <t>J.O. PERIGOLO CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9526,12 +9526,12 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>VIA VALE CORRETORA DE SEGUROS LT</t>
+          <t>JARYS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9541,12 +9541,12 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>W1 CORR SGRS LTDA</t>
+          <t>JEFFERSON FERNANDO ROSSI</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Lucas Camargo de Araújo</t>
+          <t>Marcela Doni</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>A NASCIMENTO CALTABIANO CORRETOR</t>
+          <t>JULIO CESAR VERONEZE ME</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>ADILSON DE SOUZA</t>
+          <t>JUNDSAFE CERTIFI DIGITAL E COR S</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>ADRIANO DE PROSPERO</t>
+          <t>JVJ CORR DE SEGUROS E PLANOS DE</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>AGILTEC ADM E CORR DE SEGUROS EI</t>
+          <t>LACOURT FIDELITY CORRETORA DE SE</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>AIJ CORRETORA DE SEGUROS LTDA</t>
+          <t>LAIR APARECIDO DA SILVA</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>AJSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>LED CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ALESSANDRA JANSONIS MARCUZ SILVA</t>
+          <t>LHSM CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ALL PROTECTION CORRETORA DE SEGU</t>
+          <t>LINCOLN ANDRE DA SILVA ZAGO</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>ALLEGRO CORRETORA DE SEGUROS EM</t>
+          <t>LOESCH E COSTA CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>ANA NATALINA REINER</t>
+          <t>LOTUS CORRETORA DE SEGUROS EIREL</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -9706,7 +9706,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>ANDERSON ULISSES DAS CHAGAS</t>
+          <t>LOUZADA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>ASURANSI CORRETORA DE SEGUROS</t>
+          <t>LUAPER CORRETORA SEGS SC LTDA</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>ATISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>LUCAVI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>AVANTI CORRETORA DE SEGUROS LTDA</t>
+          <t>LUIZINHO APARECIDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>B&amp;B CORRETORA DE SEGUROS GERAIS</t>
+          <t>M E V CARDOZO CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>BACCI E FERMINO CORR DE SEGUROS</t>
+          <t>MAC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>BARRETO E BIZARRO CORRETORA DE S</t>
+          <t>MADALENA MONTEIRO COR SEG CONS E</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>BARROS E CYPRIANO ADM E CORR DE</t>
+          <t>MAFEL ASS E CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>BR ESTATE CONSULTORIA IMOBILIARI</t>
+          <t>MANASEG CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>CARDOSO E FILHO CORRETORA DE SEG</t>
+          <t>MANTOVANI CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO DA SILVA COSTA</t>
+          <t>MARA DENISE DA SILVA</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>CARLOS APARECIDO RIBEIRO</t>
+          <t>MARACOR CONSULT E CORR DE SEGS L</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -9886,7 +9886,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>CASTRO E PIRANE COR SEGS VIDA</t>
+          <t>MARCEL &amp; ABDULLAH CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>CKS CORRETORA DE SEGUROS LTDA</t>
+          <t>MARCIO CHAMPION CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>CLIENSEG COR DE SEGUROS LTDA</t>
+          <t>MARIA ELOINA STANGHERLIN</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>COLUMBIA CORRETORA DE SEGUROS SS</t>
+          <t>MARIA ELOINA STANGHERLIN SEGUROS</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CORPORATE CARTAGENA ADMINISTRADO</t>
+          <t>MARIA EUGENIA LUISI DA SILVA</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CORRET, DE SEGS BEST ESTILO LTDA</t>
+          <t>MARIA VILMA FIGUEIREDO SOSTENA</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>COSTA E CAOVILA COR DE SEGUROS L</t>
+          <t>MARISA BRUZADIM RAMOS CALANDRIM</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>CS - ADMINISTRACAO E CORRETORA D</t>
+          <t>MAWILE'S COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>DALAVA CORRETORA DE SEGUROS LTDA</t>
+          <t>MERCANTIL FERNAO DIAS COM IMPORT</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>DE GENNARO &amp; PAVANELLI G.S.C.S.P</t>
+          <t>MINSKI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>DELA MARTA CORRETORA DE SEGUROS</t>
+          <t>MORUNGABA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DODA PIVA COR.DE SEGUROS LTDA</t>
+          <t>MR ALVES CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>DRIKA PIRES COR DE SEGS VIDA LT</t>
+          <t>MX2 QUALITY SUPPORT ASS EMP E CO</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>DY CORRETORA DE SEGUROS LTDA</t>
+          <t>NACAO SEGURA COR.DE SEGS.S/S LTD</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>EDINETE CRISTIANE SEPRESSE PRETE</t>
+          <t>NATAN SACCENTI LOPES</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>EDISON JOSE CORREA</t>
+          <t>NORTE A SUL CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>ELOSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>NOVA RIO CORR E SHOPPING DO SEGU</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>EXERCE CONS CORR SEGS LTDA</t>
+          <t>OAK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>EXODO CONFIANCA CORRETORA DE SEG</t>
+          <t>OLIVEIRA E GATTI CORRETORA DE SE</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>EXP HAUS CORRETORA DE SEGUROS LT</t>
+          <t>OSTERVAL DO CANTO E SILVA FILHO</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>EXPERTISE CONSULTORIA E CORRETAG</t>
+          <t>PATRICIA PEREIRA BARRETO</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>F P DE SOUZA CORRETORA DE SEGURO</t>
+          <t>PAULO SOUSA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>FAMA CORRETORA DE SEGUROS LTDA</t>
+          <t>PEDRO PICINI</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>FARIA COR DE SEG E PLANOS DE SAU</t>
+          <t>PEREIRA BUENO CORRET SEGS S/C LT</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>FERNANDA DE CARVALHO BRAGA</t>
+          <t>PHAULO GODOI CONS E COR DE SEGUR</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>FERNANDO FELIPE CORREA TAVARES</t>
+          <t>PIMENTEL &amp; BOFF CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>FORMAGGIO ADM E COR DE SEGS LTDA</t>
+          <t>PIZZI &amp; PIZZI CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>FOSTER CORR DE SEGS E SERVICOS F</t>
+          <t>PONTO BEM SEGURO CORRETORA DE SE</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>FRANCISCO CARLOS NUNES DE OLIVEI</t>
+          <t>PRIMETIME CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>GERSON DOS SANTOS PAIVA</t>
+          <t>PROFSEG ITATIBA ADM COR SEGS LT</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>GHRANERO CORRETORA DE SEGUROS LT</t>
+          <t>R Q DE ALMEIDA CORR DE SEGS ME</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>GILIOLI &amp; ROSA COR.DE SEGS.LTDA</t>
+          <t>REGENTE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>GOIS CONS E CORR DE SEGS LTDA</t>
+          <t>RICANELO &amp; NASCIMENTO ADM E COR</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>GR ATIBAIA CORRETORA DE SEGUROS</t>
+          <t>RICARDO ALEXANDRE DE FREITAS</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>HERMES DAGOBERTO MOLINARI</t>
+          <t>RIED CONS.CORR.SEGUROS S/C LTDA.</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>IMPERIO BRASIL CORRETORA DE SEGU</t>
+          <t>RINALDO JOSE ZUIN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>INNOVACCI CORRETORA DE SEGUROS L</t>
+          <t>ROSANGELA MANGILI DE FIGUEIREDO</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>IVAN FURLAN</t>
+          <t>ROSICLEIA ABREU DA SILVA</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>J.O. PERIGOLO CORRETORA DE SEGUR</t>
+          <t>S. N. CORRETAGEM DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>JARYS CORRETORA DE SEGUROS LTDA</t>
+          <t>S2 CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>JEFFERSON FERNANDO ROSSI</t>
+          <t>SABIA LIMA CORRETORA DE SEGS LTD</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>JULIO CESAR VERONEZE ME</t>
+          <t>SARA LAINETTE PEREIRA</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>JUNDSAFE CERTIFI DIGITAL E COR S</t>
+          <t>SECURIUM CORR SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>JVJ CORR DE SEGUROS E PLANOS DE</t>
+          <t>SEG DESP CORR DE SEGU E DESPACHA</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>LACOURT FIDELITY CORRETORA DE SE</t>
+          <t>SEGURO EFICAZ CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>LAIR APARECIDO DA SILVA</t>
+          <t>SENTA A PUA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>LED CORRETORA DE SEGUROS</t>
+          <t>SEVEN B ADM CONS GEREN RISCO E C</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>LHSM CORRETORA DE SEGUROS EIRELI</t>
+          <t>SIMUS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>LINCOLN ANDRE DA SILVA ZAGO</t>
+          <t>SOARES CRUZ CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>LOESCH E COSTA CORRETORA DE SEGU</t>
+          <t>SOPACC BRAGSEG-BRANGANCA C.C.S.L</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>LOTUS CORRETORA DE SEGUROS EIREL</t>
+          <t>SOUZA SILVA ADM.COR.SEGS LTDA.</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>LOUZADA CORRETORA DE SEGUROS LTD</t>
+          <t>SUZANA CRISTINA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>LUAPER CORRETORA SEGS SC LTDA</t>
+          <t>TAIF CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>LUCAVI CORRETORA DE SEGUROS LTDA</t>
+          <t>TEGMINE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>LUIZINHO APARECIDO DE OLIVEIRA</t>
+          <t>TIAGO R VIOTTI CORR DE SEGS ME</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>M E V CARDOZO CORRETORA DE SEGUR</t>
+          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>MAC CORRETORA DE SEGUROS LTDA</t>
+          <t>UPON CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>MADALENA MONTEIRO COR SEG CONS E</t>
+          <t>VAICOM CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>MAFEL ASS E CORRETORA DE SEGUROS</t>
+          <t>VERDI &amp; CUNHA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>MANASEG CORRETORA DE SEGUROS LTD</t>
+          <t>VIANELO CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>MANTOVANI CORRETORA DE SEGUROS L</t>
+          <t>WAGNILSON ALVES DE OLIVEIRA ME</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>MARA DENISE DA SILVA</t>
+          <t>WENDEL AMARO LAPA</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>MARACOR CONSULT E CORR DE SEGS L</t>
+          <t>YARA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>MARCEL &amp; ABDULLAH CORR SEGS LTDA</t>
+          <t>ZANNI CONSULTORIA E CORR DE SEGU</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>MARCELI ANDRADE LEITE</t>
+          <t>ALEXANDRE JOAO FILHO</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>MARCIO CHAMPION CORRETORA DE SEG</t>
+          <t>ALTH SILVEIRA CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10876,12 +10876,12 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>MARIA ELOINA STANGHERLIN</t>
+          <t>ANA PAULA DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10891,12 +10891,12 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>MARIA ELOINA STANGHERLIN SEGUROS</t>
+          <t>ANDERSON SILVA E SOUZA COR DE SE</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10906,12 +10906,12 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>MARIA EUGENIA LUISI DA SILVA</t>
+          <t>ANOVAMAR CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>MARIA VILMA FIGUEIREDO SOSTENA</t>
+          <t>ARAMAR CORR DE SEGS SC LTDA</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10936,12 +10936,12 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>MARISA BRUZADIM RAMOS CALANDRIM</t>
+          <t>AXII CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10951,12 +10951,12 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>MAWILE'S COR DE SEGS LTDA</t>
+          <t>Artermar Corretagem de Seguros L</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10966,12 +10966,12 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>MERCANTIL FERNAO DIAS COM IMPORT</t>
+          <t>B3M CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10981,12 +10981,12 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>MINSKI CORRETORA DE SEGUROS LTDA</t>
+          <t>BLIX CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -10996,12 +10996,12 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>MORUNGABA CORRETORA DE SEGUROS L</t>
+          <t>BWCOR CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11011,12 +11011,12 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>MR ALVES CORRETORA DE SEGUROS LT</t>
+          <t>Bergamo corretora de seguros Ltd</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11026,12 +11026,12 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>MX2 QUALITY SUPPORT ASS EMP E CO</t>
+          <t>CAMPINAS CORRETORA DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11041,12 +11041,12 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NACAO SEGURA COR.DE SEGS.S/S LTD</t>
+          <t>CL MACEDO CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11056,12 +11056,12 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NATAN SACCENTI LOPES</t>
+          <t>DIESEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11071,12 +11071,12 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NORTE A SUL CORRETORA DE SEGUROS</t>
+          <t>DYNATECH CORR.DE SEGS.S/C LTDA.</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11086,12 +11086,12 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>NOVA RIO CORR E SHOPPING DO SEGU</t>
+          <t>E J L PLANOS DE SAUDE SEG em ger</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11101,12 +11101,12 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>OAK CORRETORA DE SEGUROS LTDA</t>
+          <t>E L M ALVES LTDA</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11116,12 +11116,12 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>OLIVEIRA E GATTI CORRETORA DE SE</t>
+          <t>EMERSON CONS CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11131,12 +11131,12 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>OSTERVAL DO CANTO E SILVA FILHO</t>
+          <t>EVENTUAL CORRETORA DE SEGUROS EI</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11146,12 +11146,12 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>PATRICIA PEREIRA BARRETO</t>
+          <t>EZ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11161,12 +11161,12 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>PAULO SOUSA CORRETORA DE SEGUROS</t>
+          <t>F. B. BONFIM CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11176,12 +11176,12 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>PEDRO PICINI</t>
+          <t>FAV CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11191,12 +11191,12 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>PEREIRA BUENO CORRET SEGS S/C LT</t>
+          <t>FILIPPINI CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11206,12 +11206,12 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>PHAULO GODOI CONS E COR DE SEGUR</t>
+          <t>FROTA TEIXEIRA DE PAULINIA COR S</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11221,12 +11221,12 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>PIMENTEL &amp; BOFF CORRETORA DE SEG</t>
+          <t>Forteplan Negocios e Cor de Seg</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11236,12 +11236,12 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>PIZZI &amp; PIZZI CORRETORA DE SEGUR</t>
+          <t>GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11251,12 +11251,12 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>PONTO BEM SEGURO CORRETORA DE SE</t>
+          <t>GUARNIERI - ADM E COR DE SEGS S</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11266,12 +11266,12 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PRIMETIME CORRETORA DE SEGUROS L</t>
+          <t>H T GOLD CORRET DE SGS S/S LTDA</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11281,12 +11281,12 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PROFSEG ITATIBA ADM COR SEGS LT</t>
+          <t>HERITA ADM E CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11296,12 +11296,12 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>R Q DE ALMEIDA CORR DE SEGS ME</t>
+          <t>HOPEFUL CORRETORA DE SEGUROS DE</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>REGENTE CORRETORA DE SEGUROS LTD</t>
+          <t>J BRAGA CORRETORA DE SEGUROS E S</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11326,12 +11326,12 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>RICANELO &amp; NASCIMENTO ADM E COR</t>
+          <t>JHZS CONSULTORIA E CORR DE SEGS</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11341,12 +11341,12 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>RICARDO ALEXANDRE DE FREITAS</t>
+          <t>JUNDISEG CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11356,12 +11356,12 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>RIED CONS.CORR.SEGUROS S/C LTDA.</t>
+          <t>LANEK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11371,12 +11371,12 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>RINALDO JOSE ZUIN</t>
+          <t>LETS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11386,12 +11386,12 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>ROSANGELA MANGILI DE FIGUEIREDO</t>
+          <t>LRB Corretora de Seguros Ltda</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>ROSICLEIA ABREU DA SILVA</t>
+          <t>M F C ASSESSORIA E CORR. DE SEGS</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11416,12 +11416,12 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>S. N. CORRETAGEM DE SEGUROS LTDA</t>
+          <t>MAC BENEFICIOS E C DE S LTDA- ME</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11431,12 +11431,12 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>S2 CORRETORA DE SEGUROS</t>
+          <t>MAPE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11446,12 +11446,12 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>SABIA LIMA CORRETORA DE SEGS LTD</t>
+          <t>MARTINSSEG CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11461,12 +11461,12 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SARA LAINETTE PEREIRA</t>
+          <t>MARUMOTO COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11476,12 +11476,12 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>SECURIUM CORR SEGUROS LTDA</t>
+          <t>MBROKER CORA DE SEG E SERV ADM L</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11491,12 +11491,12 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>SEG DESP CORR DE SEGU E DESPACHA</t>
+          <t>MENDES RANUCCI ADM E COR DE SEGS</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11506,12 +11506,12 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>SEGURO EFICAZ CORRETORA DE SEGUR</t>
+          <t>MOGI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>SENTA A PUA CORRETORA DE SEGUROS</t>
+          <t>MVC Corretora de Seguros LTDA</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>SEVEN B ADM CONS GEREN RISCO E C</t>
+          <t>Marcos Aparecido Barbosa</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11551,12 +11551,12 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>SIMUS CORRETORA DE SEGUROS LTDA</t>
+          <t>Metaplus Corretora de Seguros Lt</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11566,12 +11566,12 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>SOARES CRUZ CORRETORA DE SEGUROS</t>
+          <t>NUNES E JUDAR ADM. COR. S. SC. L</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11581,12 +11581,12 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>SOPACC BRAGSEG-BRANGANCA C.C.S.L</t>
+          <t>PADME CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11596,12 +11596,12 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>SOUZA SILVA ADM.COR.SEGS LTDA.</t>
+          <t>PARAMITAS CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11611,12 +11611,12 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>SUZANA CRISTINA DE OLIVEIRA</t>
+          <t>PAULO FIRMINO DOS SANTOS JUNIOR</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>TAIF CORRETORA DE SEGUROS LTDA</t>
+          <t>PEPI CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11641,12 +11641,12 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>TEGMINE CORRETORA DE SEGUROS LTD</t>
+          <t>PLANEJA FUTURO CONS CORR DE SEG</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11656,12 +11656,12 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>TIAGO R VIOTTI CORR DE SEGS ME</t>
+          <t>POS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11671,12 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
+          <t>PRIME CONNECT COR SEG E PLAN SAU</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11686,12 +11686,12 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>UPON CORRETORA DE SEGUROS LTDA</t>
+          <t>PRIME CORRETORA DE SEGUROS E CON</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11701,12 +11701,12 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>VAICOM CORRETORA DE SEGUROS LTDA</t>
+          <t>PRIME SEGUROS E CONSORCIO LTDA</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11716,12 +11716,12 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>VERDI &amp; CUNHA COR DE SEGS LTDA</t>
+          <t>PROSP SEG CORRETAGEM DE SEGUROS</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11731,12 +11731,12 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>VIANELO CORRETORA DE SEGUROS LTD</t>
+          <t>RD SEGUROS EIRELI</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11746,12 +11746,12 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>WAGNILSON ALVES DE OLIVEIRA ME</t>
+          <t>RODRIGO ALVES</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>WENDEL AMARO LAPA</t>
+          <t>RONALDO MANDETTA SEGUROS</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>YARA CORRETORA DE SEGUROS LTDA</t>
+          <t>ROSANA PANTAROTO MESIANO</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11791,12 +11791,12 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>ZANNI CONSULTORIA E CORR DE SEGU</t>
+          <t>RR FENIX CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Marcela Doni</t>
+          <t>Maria Aparecida Silva de Almeida</t>
         </is>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>ALEXANDRE JOAO FILHO</t>
+          <t>SERGIO METANOIA CORR DE SEGUROS</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>ALTH SILVEIRA CORRETORA DE SEGUR</t>
+          <t>SERGIO ROBERTO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>ANA PAULA DE OLIVEIRA</t>
+          <t>SORAIA CRUZ MACHADO GUEDES</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>ANDERSON SILVA E SOUZA COR DE SE</t>
+          <t>STANLEY CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>ANOVAMAR CORR DE SEGUROS LTDA</t>
+          <t>TARGET CONSULTING CORRETORA DE S</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>ARAMAR CORR DE SEGS SC LTDA</t>
+          <t>TF COLETTI SERV INFORMACOES CADA</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>AXII CORRETORA DE SEGUROS LTDA</t>
+          <t>V. ANTUNES CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Artermar Corretagem de Seguros L</t>
+          <t>VALDICEA PERIGO ZAMENGO</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>B3M CORRETORA DE SEGUROS LTDA</t>
+          <t>VEIKI ADM E CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>BLIX CORRETORA DE SEGUROS LTDA</t>
+          <t>VIP CLASS CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>BWCOR CORRETORA DE SEGUROS LTDA</t>
+          <t>WS BROKER CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Bergamo corretora de seguros Ltd</t>
+          <t>WS3 GESTAO DE RISCOS E SEGUROS L</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>CAMPINAS CORRETORA DE SEGS LTDA</t>
+          <t>ZAIDEN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>CL MACEDO CORRETORA DE SEGUROS L</t>
+          <t>ZANCK CORRETORA DE SGRS LTDA ME</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>DIESEL CORRETORA DE SEGUROS LTDA</t>
+          <t>celso prado corretora de seguros</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -12031,12 +12031,12 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>DYNATECH CORR.DE SEGS.S/C LTDA.</t>
+          <t>A &amp; A CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12046,12 +12046,12 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>E J L PLANOS DE SAUDE SEG em ger</t>
+          <t>ABINADABI RAMOS TEODORO CORRETOR</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12061,12 +12061,12 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>E L M ALVES LTDA</t>
+          <t>ABR AZAMBUJA ASS CORR DE SEGS LT</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12076,12 +12076,12 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>EMERSON CONS CORR DE SEGS LTDA</t>
+          <t>AGENCO AGENCIA COR.DE SEGS LTDA.</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12091,12 +12091,12 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>EVENTUAL CORRETORA DE SEGUROS EI</t>
+          <t>AGIF ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12106,12 +12106,12 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>EZ CORRETORA DE SEGUROS LTDA</t>
+          <t>ALESSANDRA RAMBELLI PETROCCO</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12121,12 +12121,12 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>F. B. BONFIM CORRETORA DE SEGURO</t>
+          <t>ALL TIME COR. SEGS LTDA.</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12136,12 +12136,12 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>FAV CORRETORA DE SEGUROS LTDA</t>
+          <t>AMG CORRETORA DE SEGUROS E CONSO</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12151,12 +12151,12 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>FILIPPINI CORRETORA DE SEGUROS L</t>
+          <t>APJC CORRETORA SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12166,12 +12166,12 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>FROTA TEIXEIRA DE PAULINIA COR S</t>
+          <t>ARTSEGUROS CORR SEGUROS SC LTDA</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Forteplan Negocios e Cor de Seg</t>
+          <t>ASHER CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12196,12 +12196,12 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>GASPERE CORRETORA DE SEGUROS LTD</t>
+          <t>ASSIS &amp; MENEZES COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12211,12 +12211,12 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>GUARNIERI - ADM E COR DE SEGS S</t>
+          <t>BBCS CORRET. DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12226,12 +12226,12 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>H T GOLD CORRET DE SGS S/S LTDA</t>
+          <t>BENVI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12241,12 +12241,12 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>HERITA ADM E CORRETORA DE SEGURO</t>
+          <t>BOA FE CORRETORA DE SEG LTDA ME</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12256,12 +12256,12 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>HOPEFUL CORRETORA DE SEGUROS DE</t>
+          <t>BRAZ ANTONIO DUARTE</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12271,12 +12271,12 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>J BRAGA CORRETORA DE SEGUROS E S</t>
+          <t>BRITSEG COR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12286,12 +12286,12 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>JHZS CONSULTORIA E CORR DE SEGS</t>
+          <t>BSA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12301,12 +12301,12 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>JUNDISEG CORRETORA DE SEGUROS LT</t>
+          <t>BUENO &amp; BERTON COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12316,12 +12316,12 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>LANEK CORRETORA DE SEGUROS LTDA</t>
+          <t>CAPITAL SEGURO CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12331,12 +12331,12 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>LETS CORRETORA DE SEGUROS LTDA</t>
+          <t>CELJH CEM POR CENTO SEGURO - COR</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12346,12 +12346,12 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>LRB Corretora de Seguros Ltda</t>
+          <t>DELTREGGIA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12361,12 +12361,12 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>M F C ASSESSORIA E CORR. DE SEGS</t>
+          <t>DEMAIS SEGUROS CORRETORA LTDA ME</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12376,12 +12376,12 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>MAC BENEFICIOS E C DE S LTDA- ME</t>
+          <t>DMCS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12391,12 +12391,12 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>MAPE CORRETORA DE SEGUROS LTDA</t>
+          <t>DOXA ADMINISTRACAO COR. SEGS. LT</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12406,12 +12406,12 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>MARTINSSEG CORRETORA DE SEGUROS</t>
+          <t>ELIUD SOARES CHAGAS</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12421,12 +12421,12 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>MARUMOTO COR DE SEG LTDA</t>
+          <t>EMB CORRET DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12436,12 +12436,12 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>MBROKER CORA DE SEG E SERV ADM L</t>
+          <t>ESSENCIAL BR CORR DE SEG EIRELI</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12451,12 +12451,12 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>MENDES RANUCCI ADM E COR DE SEGS</t>
+          <t>ESTETER E SARTORI CORRETORA DE S</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12466,12 +12466,12 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>MOGI CORRETORA DE SEGUROS LTDA</t>
+          <t>EVOLUIU CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12481,12 +12481,12 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>MVC Corretora de Seguros LTDA</t>
+          <t>F.ARDITE COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12496,12 +12496,12 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Marcos Aparecido Barbosa</t>
+          <t>FERNANDES AMPARO ASSOC COR DE</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12511,12 +12511,12 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Metaplus Corretora de Seguros Lt</t>
+          <t>FFM CONS ASS E CORR SEGS S/C LTD</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12526,12 +12526,12 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>GENINHO COR DE SEGS SS LTDA</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12541,12 +12541,12 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>PADME CORRETORA DE SEGUROS LTDA</t>
+          <t>GIFT CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12556,12 +12556,12 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>PARAMITAS CORRETORA DE SEGUROS L</t>
+          <t>INSURANCE BUSINESS CONSULT.E COR</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>PAULO FIRMINO DOS SANTOS JUNIOR</t>
+          <t>ITAPIRA POINT CORRETORA DE SEGS</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12586,12 +12586,12 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>PEPI CORRETORA DE SEGUROS EIRELI</t>
+          <t>J SGRIGNOLI CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12601,12 +12601,12 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>PLANEJA FUTURO CONS CORR DE SEG</t>
+          <t>KAYABI CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12616,12 +12616,12 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>POS CORRETORA DE SEGUROS LTDA</t>
+          <t>KX SEGUROS SERVICOS E REP COMERC</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>PRIME CONNECT COR SEG E PLAN SAU</t>
+          <t>M L BORDIGNON COR SEGS EIRELI ME</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12646,12 +12646,12 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>MC CORRETORA DE SEGUROS E SAUDE</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12661,12 +12661,12 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>PRIME SEGUROS E CONSORCIO LTDA</t>
+          <t>MIDASCOR ASSES.CORR.SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12676,12 +12676,12 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>PROSP SEG CORRETAGEM DE SEGUROS</t>
+          <t>MILENA LEMES DUARTE</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12691,12 +12691,12 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>RD SEGUROS EIRELI</t>
+          <t>MINERAL COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12706,12 +12706,12 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>RODRIGO ALVES</t>
+          <t>MIRIA ADM E CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12721,12 +12721,12 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>RONALDO MANDETTA SEGUROS</t>
+          <t>MR ZULIAN CORRETORA DE SEGUROS E</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12736,12 +12736,12 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>ROSANA PANTAROTO MESIANO</t>
+          <t>N OLIVEIRA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12751,12 +12751,12 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>RR FENIX CORRETORA DE SEGUROS</t>
+          <t>NECTANEBO CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12766,12 +12766,12 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>SERGIO METANOIA CORR DE SEGUROS</t>
+          <t>NEWDAMA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12781,12 +12781,12 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>SERGIO ROBERTO DE OLIVEIRA</t>
+          <t>PANAMBY ADM E COR DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12796,12 +12796,12 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>SORAIA CRUZ MACHADO GUEDES</t>
+          <t>PANSANI E OLIVEIRA ADM CORR SEGS</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12811,12 +12811,12 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>STANLEY CORRETORA DE SEGUROS LTD</t>
+          <t>PH TORQUATO CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12826,12 +12826,12 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>TARGET CONSULTING CORRETORA DE S</t>
+          <t>R J FONSECA CORRET DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12841,12 +12841,12 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>TF COLETTI SERV INFORMACOES CADA</t>
+          <t>R. V. M. DE FARIA CORRET DE SEGS</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12856,12 +12856,12 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>V. ANTUNES CORRETORA DE SEGUROS</t>
+          <t>RAISSA FERREIRA CORR DE SEG EIRE</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>VALDICEA PERIGO ZAMENGO</t>
+          <t>RESIDENCE ADM E CORR DE SEGUROS</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12886,12 +12886,12 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>VEIKI ADM E CORRETORA DE SEGUROS</t>
+          <t>SAUVARE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12901,12 +12901,12 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>VIP CLASS CORRETORA DE SEGUROS L</t>
+          <t>SECURITY CORR DE SEGS SAUDE E IN</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12916,12 +12916,12 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>WS BROKER CORRETORA DE SEGUROS L</t>
+          <t>SEGUROS CAMBUI LTDA</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12931,12 +12931,12 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>WS3 GESTAO DE RISCOS E SEGUROS L</t>
+          <t>SEGUROS ELITE CORRETORA DE SEGUR</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12946,12 +12946,12 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>ZAIDEN CORRETORA DE SEGUROS LTDA</t>
+          <t>TM BITAR ADM E CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12961,12 +12961,12 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>ZANCK CORRETORA DE SGRS LTDA ME</t>
+          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12976,12 +12976,12 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>celso prado corretora de seguros</t>
+          <t>TOP CRED CORR SEGS E SOLUCOES P</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Maria Aparecida Silva de Almeida</t>
+          <t>Monica Prataviera</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>A &amp; A CORRETORA DE SEGUROS LTDA</t>
+          <t>TRANQUILITATIS ASSES E COR DE SE</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>ABINADABI RAMOS TEODORO CORRETOR</t>
+          <t>ULIBI COR E ASSES DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>ABR AZAMBUJA ASS CORR DE SEGS LT</t>
+          <t>VACKER &amp; BUENO COR.DE SEGS LTDA.</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>AGENCO AGENCIA COR.DE SEGS LTDA.</t>
+          <t>ZANINI CAMPINAS ADM.E COR.DE</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -13051,12 +13051,12 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>AGIF ADM E COR DE SEGS LTDA</t>
+          <t>ADILENE CRISTINA DOS SANTOS SILV</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13066,12 +13066,12 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>ALESSANDRA RAMBELLI PETROCCO</t>
+          <t>ALESSANDRA DE OLIVEIRA GARCIA</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13081,12 +13081,12 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>ALL TIME COR. SEGS LTDA.</t>
+          <t>ALEXANDRE MEGA DO R. B COR SEGS</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>AMG CORRETORA DE SEGUROS E CONSO</t>
+          <t>ALFREDO NÉRI FILHO</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13111,12 +13111,12 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>APJC CORRETORA SEGUROS LTDA ME</t>
+          <t>ALMEIDA SANTOS CORR DE SEGUROS L</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13126,12 +13126,12 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>ARTSEGUROS CORR SEGUROS SC LTDA</t>
+          <t>ALMEIDA SCHMIDT CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13141,12 +13141,12 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>ASHER CORRETORA DE SEGUROS LTDA</t>
+          <t>ALVES E SIMOES CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13156,12 +13156,12 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>ASSIS &amp; MENEZES COR.DE SEGS.LTDA</t>
+          <t>ANTONIO SERGIO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>BBCS CORRET. DE SEGS LTDA</t>
+          <t>B F LAGANARO CORRET DE SEGS ME</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13186,12 +13186,12 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>BENVI CORRETORA DE SEGUROS LTDA</t>
+          <t>BETEL VALE CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13201,12 +13201,12 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>BOA FE CORRETORA DE SEG LTDA ME</t>
+          <t>BRUCE COR SEG LTDA</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13216,12 +13216,12 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>BRAZ ANTONIO DUARTE</t>
+          <t>CLAUDIA ELEN RIBEIRO LEITE FERRA</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13231,12 +13231,12 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>BRITSEG COR DE SEGUROS LTDA</t>
+          <t>CONE LESTE CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13246,12 +13246,12 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>BSA CORRETORA DE SEGUROS LTDA</t>
+          <t>CONECTAVALLE CONSULTORIA DE SEGU</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13261,12 +13261,12 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>BUENO &amp; BERTON COR DE SEGS LTDA</t>
+          <t>DARCI SEGGAR CORR S S/C LTDA</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13276,12 +13276,12 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>CAPITAL SEGURO CORR DE SEGS LTDA</t>
+          <t>FERANA ADM E CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13291,12 +13291,12 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>CELJH CEM POR CENTO SEGURO - COR</t>
+          <t>FONSECA &amp; PILIPPI COR DE SEGUROS</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13306,12 +13306,12 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>DELTREGGIA CORRETORA DE SEGUROS</t>
+          <t>FR SJC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13321,12 +13321,12 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>DEMAIS SEGUROS CORRETORA LTDA ME</t>
+          <t>GUITTON CORR SEG SC LTDA</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13336,12 +13336,12 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>DMCS CORRETORA DE SEGUROS LTDA</t>
+          <t>IMEDIATA COR DE SEGS E ADM LTDA</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13351,12 +13351,12 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>DOXA ADMINISTRACAO COR. SEGS. LT</t>
+          <t>JOAO CEZAR LEITE</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13366,12 +13366,12 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>ELIUD SOARES CHAGAS</t>
+          <t>LOBATO TAUBATE COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13381,12 +13381,12 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>EMB CORRET DE SEGS LTDA ME</t>
+          <t>LORIGGIO CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13396,12 +13396,12 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>ESSENCIAL BR CORR DE SEG EIRELI</t>
+          <t>LTX CORRETORA DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>ESTETER E SARTORI CORRETORA DE S</t>
+          <t>LUIS FABIANO BATISTA DE MELLO SA</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13426,12 +13426,12 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>EVOLUIU CORRETORA DE SEGUROS LTD</t>
+          <t>LUIZ FERNANDO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13441,12 +13441,12 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>F.ARDITE COR.DE SEGS.LTDA</t>
+          <t>MARCELA ROSEIRA DA SILVA SEGURA</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13456,12 +13456,12 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>FERNANDES AMPARO ASSOC COR DE</t>
+          <t>MASTER CRUZEIRO ADM E COR DE SEG</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>FFM CONS ASS E CORR SEGS S/C LTD</t>
+          <t>MOURA BUENO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13486,12 +13486,12 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>GENINHO COR DE SEGS SS LTDA</t>
+          <t>MSV TAUBATE ADM E COR SEGS LTDA</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13501,12 +13501,12 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>GIFT CORRETORA DE SEGUROS LTDA</t>
+          <t>NOVA SAMPA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13516,12 +13516,12 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>INSURANCE BUSINESS CONSULT.E COR</t>
+          <t>PAGE´S ADM.E COR. DE SEGS LTDA.</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13531,12 +13531,12 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>ITAPIRA POINT CORRETORA DE SEGS</t>
+          <t>PATRICIA CARVALHO COR DE SEGS LT</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13546,12 +13546,12 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>J SGRIGNOLI CORRETORA DE SEGUROS</t>
+          <t>PAVANITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13561,12 +13561,12 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>KAYABI CORR DE SEGS LTDA ME</t>
+          <t>PORTAL VALE COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13576,12 +13576,12 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>KX SEGUROS SERVICOS E REP COMERC</t>
+          <t>PREMISSA CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>M L BORDIGNON COR SEGS EIRELI ME</t>
+          <t>PRINORTE ADM E CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13606,12 +13606,12 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>MC CORRETORA DE SEGUROS E SAUDE</t>
+          <t>PROGNATUS CORRETORA E ADM DE SEG</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13621,12 +13621,12 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>MIDASCOR ASSES.CORR.SEGUROS LTDA</t>
+          <t>QUEIROZ FILHO COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13636,12 +13636,12 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>MILENA LEMES DUARTE</t>
+          <t>RAFAEL SOUZA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13651,12 +13651,12 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>MINERAL COR DE SEGS LTDA</t>
+          <t>RAQUEL NAZARETH DE MOURA</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13666,12 +13666,12 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>MIRIA ADM E CORR DE SEGUROS LTDA</t>
+          <t>ROBERTO C C TEIXEIRA COR DE SEGS</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13681,12 +13681,12 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>MR ZULIAN CORRETORA DE SEGUROS E</t>
+          <t>SANDRA DE ALMEIDA MORAIS</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13696,12 +13696,12 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>N OLIVEIRA CORRETORA DE SEGUROS</t>
+          <t>SCUTUM CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13711,12 +13711,12 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>NECTANEBO CORR DE SEGS LTDA</t>
+          <t>SEMEAR FAS ADM E CORRETORA SEGS</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13726,12 +13726,12 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>NEWDAMA CORRETORA DE SEGUROS LTD</t>
+          <t>SMS CORR DE SEGS E CONSORCIOS EI</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13741,12 +13741,12 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>PANAMBY ADM E COR DE SEGUROS LTD</t>
+          <t>SOBERANA ADM E CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13756,12 +13756,12 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>PANSANI E OLIVEIRA ADM CORR SEGS</t>
+          <t>SUMANADA CORRETORA DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13771,12 +13771,12 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>PASSOS E PASSOS CORRETORA DE SEG</t>
+          <t>T. ROBERTO DA CONCEICAO CORRETOR</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13786,12 +13786,12 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>PH TORQUATO CORRETORA DE SEGUROS</t>
+          <t>TC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13801,12 +13801,12 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>R J FONSECA CORRET DE SEGS LTDA</t>
+          <t>TECHNICAL CONS E COR DE SEG LTDA</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13816,12 +13816,12 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>R. V. M. DE FARIA CORRET DE SEGS</t>
+          <t>TOLEDO E CAMARGO CORRETORA DE SE</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13831,12 +13831,12 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>RAISSA FERREIRA CORR DE SEG EIRE</t>
+          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13846,12 +13846,12 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>RESIDENCE ADM E CORR DE SEGUROS</t>
+          <t>UNION BRAZIL OF SECURITY COR DE</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13861,12 +13861,12 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>SAUVARE CORRETORA DE SEGUROS LTD</t>
+          <t>VALEC CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13876,12 +13876,12 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>SECURITY CORR DE SEGS SAUDE E IN</t>
+          <t>ZARELLI CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Natalia Borges</t>
         </is>
       </c>
     </row>
@@ -13891,12 +13891,12 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>SEGUROS CAMBUI LTDA</t>
+          <t>A C CARRARO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13906,12 +13906,12 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>SEGUROS ELITE CORRETORA DE SEGUR</t>
+          <t>ADEMAIS CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13921,12 +13921,12 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>TM BITAR ADM E CORRETORA DE SEGU</t>
+          <t>ADP ASSESSORIA E CORR DE SEGS LT</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13936,12 +13936,12 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
+          <t>AMARILDO MAIA COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13951,12 +13951,12 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>TOP CRED CORR SEGS E SOLUCOES P</t>
+          <t>ARKOS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13966,12 +13966,12 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>TRANQUILITATIS ASSES E COR DE SE</t>
+          <t>BER CORRETORA E ADMINISTRADORA D</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>ULIBI COR E ASSES DE SEGS LTDA</t>
+          <t>BHADRATI CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -13996,12 +13996,12 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>VACKER &amp; BUENO COR.DE SEGS LTDA.</t>
+          <t>BIANCO SANTAROSA CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14011,12 +14011,12 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>ZANINI CAMPINAS ADM.E COR.DE</t>
+          <t>CARLOS ALBERTO GALLO</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Monica Prataviera</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14026,12 +14026,12 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>ADILENE CRISTINA DOS SANTOS SILV</t>
+          <t>CASTRO E HACKMAM CORR DE SEGS E</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14041,12 +14041,12 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>ALESSANDRA DE OLIVEIRA GARCIA</t>
+          <t>CLARIAN CONSULTORIA E COR DE SEG</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14056,12 +14056,12 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>ALEXANDRE MEGA DO R. B COR SEGS</t>
+          <t>CONSTRUSEG NE2 CORR DE SEGUROS L</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14071,12 +14071,12 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>ALFREDO NÉRI FILHO</t>
+          <t>DASCOLI COR DE SEGS LTDA-ME</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14086,12 +14086,12 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>ALMEIDA SANTOS CORR DE SEGUROS L</t>
+          <t>DILIGENTE CORR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14101,12 +14101,12 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>ALMEIDA SCHMIDT CORRETORA DE SEG</t>
+          <t>DUDAX CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14116,12 +14116,12 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>ALVES E SIMOES CORR DE SEGS LTDA</t>
+          <t>EMINENTE COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14131,12 +14131,12 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>ANTONIO SERGIO COR DE SEGS LTDA</t>
+          <t>ESTRELA DE AMERICANA COR DE SEGS</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14146,12 +14146,12 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>B F LAGANARO CORRET DE SEGS ME</t>
+          <t>Evoluti Corretora e Adm de Segur</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14161,12 +14161,12 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>BETEL VALE CORR DE SEGS LTDA</t>
+          <t>FABIANA MINARRO CORR SEGS PLANOS</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14176,12 +14176,12 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>BRUCE COR SEG LTDA</t>
+          <t>FIDELITY ASS E CORR DE SEG LTDA</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14191,12 +14191,12 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>CLAUDIA ELEN RIBEIRO LEITE FERRA</t>
+          <t>FIUZA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14206,12 +14206,12 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>CONE LESTE CORR DE SEGS LTDA</t>
+          <t>FNL ADMINISTRACAO E CORRETAGEM D</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14221,12 +14221,12 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>CONECTAVALLE CONSULTORIA DE SEGU</t>
+          <t>FRANCISCO MARCILIO DE SOUSA</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14236,12 +14236,12 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>DARCI SEGGAR CORR S S/C LTDA</t>
+          <t>FSN CORR DE SEG E PREV LTDA ME</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14251,12 +14251,12 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>FERANA ADM E CORR DE SEGS LTDA</t>
+          <t>G E P BORGES CORR E ASS DE SGS L</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14266,12 +14266,12 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>FONSECA &amp; PILIPPI COR DE SEGUROS</t>
+          <t>GABRIELA ANGEL DE JESUS RIBEIRO</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14281,12 +14281,12 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>FR SJC CORRETORA DE SEGUROS LTDA</t>
+          <t>GOLD SEGUROS CORRETAGEM E ADM</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14296,12 +14296,12 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>GUITTON CORR SEG SC LTDA</t>
+          <t>GUILHERME SALLES RODRIGUES DA SI</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14311,12 +14311,12 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>IMEDIATA COR DE SEGS E ADM LTDA</t>
+          <t>IDA CRISTINA DELLA BRUNA CORR DE</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14326,12 +14326,12 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>JOAO CEZAR LEITE</t>
+          <t>IGMF CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14341,12 +14341,12 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>LOBATO TAUBATE COR DE SEGS LTDA</t>
+          <t>J.R PHAROL ADM E COR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14356,12 +14356,12 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>LORIGGIO CORR DE SEGUROS LTDA</t>
+          <t>JOSE APARECIDO BERTONI SIERRA</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14371,12 +14371,12 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>LTX CORRETORA DE SEGUROS LTDA ME</t>
+          <t>JOSE CARLOS MARTINS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14386,12 +14386,12 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>LUIS FABIANO BATISTA DE MELLO SA</t>
+          <t>KAREN KATHERINE GOMES DE OLIVEIR</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14401,12 +14401,12 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>LUIZ FERNANDO DE OLIVEIRA</t>
+          <t>KLEBER CORR SEGUROS</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14416,12 +14416,12 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>MARCELA ROSEIRA DA SILVA SEGURA</t>
+          <t>LIFE OF DREAMS COR SEGS VIDA LTD</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14431,12 +14431,12 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>MASTER CRUZEIRO ADM E COR DE SEG</t>
+          <t>LIFT UP CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14446,12 +14446,12 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>MOURA BUENO COR DE SEGS LTDA</t>
+          <t>LIVI CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14461,12 +14461,12 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>MSV TAUBATE ADM E COR SEGS LTDA</t>
+          <t>LUAR CORR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14476,12 +14476,12 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>NOVA SAMPA COR DE SEGS LTDA</t>
+          <t>LUCAS SORAN DA SILVA</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14491,12 +14491,12 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>PAGE´S ADM.E COR. DE SEGS LTDA.</t>
+          <t>LUCIANA ALVES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14506,12 +14506,12 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>PATRICIA CARVALHO COR DE SEGS LT</t>
+          <t>LUIZ FERNANDO DE S C CORR DE SEG</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14521,12 +14521,12 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>PAVANITO CORRETORA DE SEGUROS LT</t>
+          <t>MANOEL DONIZETI GOMES</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14536,12 +14536,12 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>PORTAL VALE COR DE SEGS LTDA</t>
+          <t>MARIANA FURIO DE WIT COR DE SGS</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>PREMISSA CORRETORA DE SEGUROS LT</t>
+          <t>MBCOR CORRETORA DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14566,12 +14566,12 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>PRINORTE ADM E CORRETORA DE SEGU</t>
+          <t>MIG FARIAS CORRETORA E ADM DE SE</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14581,12 +14581,12 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>PROGNATUS CORRETORA E ADM DE SEG</t>
+          <t>MORADA DO VERDE CORR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14596,12 +14596,12 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>QUEIROZ FILHO COR.DE SEGS.LTDA</t>
+          <t>NOVA ASTRE ADM E CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14611,12 +14611,12 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>RAFAEL SOUZA CORRETORA DE SEGURO</t>
+          <t>NOVO SECULO ADM E COR DE SEGS LT</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14626,12 +14626,12 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>RAQUEL NAZARETH DE MOURA</t>
+          <t>PANOBIANCO &amp; PAVAN CORR DE SEGUR</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14641,12 +14641,12 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>ROBERTO C C TEIXEIRA COR DE SEGS</t>
+          <t>PAULIMETA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14656,12 +14656,12 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>SANDRA DE ALMEIDA MORAIS</t>
+          <t>R'NAVES CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14671,12 +14671,12 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>SCUTUM CORRETORA DE SEGUROS LTDA</t>
+          <t>RENZETI CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14686,12 +14686,12 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>SEMEAR FAS ADM E CORRETORA SEGS</t>
+          <t>RIMISA CORR.DE SEGUROS S/C LTDA.</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14701,12 +14701,12 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>SMS CORR DE SEGS E CONSORCIOS EI</t>
+          <t>RO SEGMAIS ASSESSORIA DE CORR DE</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14716,12 +14716,12 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>SOBERANA ADM E CORR DE SEGS LTDA</t>
+          <t>ROBER CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14731,12 +14731,12 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>SUMANADA CORRETORA DE SEGS LTDA</t>
+          <t>ROBERTO SALLES FRAZATTO</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14746,12 +14746,12 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>T. ROBERTO DA CONCEICAO CORRETOR</t>
+          <t>ROSE BENDILATTI CORR DE SEGS LTD</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14761,12 +14761,12 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>TC CORRETORA DE SEGUROS LTDA</t>
+          <t>SEGTRANS CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14776,12 +14776,12 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>TECHNICAL CONS E COR DE SEG LTDA</t>
+          <t>SOUZAS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14791,12 +14791,12 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>TOLEDO E CAMARGO CORRETORA DE SE</t>
+          <t>UNIAO PAULISTA COR E ADM DE SEGS</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14806,12 +14806,12 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
+          <t>VECON COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14821,12 +14821,12 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>UNION BRAZIL OF SECURITY COR DE</t>
+          <t>VIZZIA CONSULT SERV E COR DE SEG</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14836,12 +14836,12 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>VALEC CORRETORA DE SEGUROS LTDA</t>
+          <t>WJP CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Priscila Perpetua Oliveira do Valle</t>
         </is>
       </c>
     </row>
@@ -14851,12 +14851,12 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>ZARELLI CORRETORA DE SEGUROS LTD</t>
+          <t>A R LEMES CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>Natalia Borges</t>
+          <t>Stefhany Beatriz Carvalho</t>
         </is>
       </c>
     </row>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>A R LEMES CORRETORA DE SEGUROS L</t>
+          <t>ACM ESTRATEGIA 360 CORRETORA DE</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>ACM ESTRATEGIA 360 CORRETORA DE</t>
+          <t>ACRO CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>ACRO CORRETORA DE SEGUROS</t>
+          <t>ALEX PEREIRA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>ALEX PEREIRA</t>
+          <t>ALIANCA J L COR SEGS LTDA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>ALIANCA J L COR SEGS LTDA</t>
+          <t>ALMEIDA LIMA CORRETORA DE SEGURO</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>ALMEIDA LIMA CORRETORA DE SEGURO</t>
+          <t>ANDERSON LOVADINE</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>ANDERSON LOVADINE</t>
+          <t>ARGEU BARBOSA DO AMARAL</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -14971,7 +14971,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>ARGEU BARBOSA DO AMARAL</t>
+          <t>AVEIRO ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>AVEIRO ADM E COR DE SEGS LTDA</t>
+          <t>BARTOLOMEU CORR E ADM DE SEGUROS</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>BARTOLOMEU CORR E ADM DE SEGUROS</t>
+          <t>BENELIFE CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>BENELIFE CORRETORA DE SEGUROS LT</t>
+          <t>BIANCA APARECIDA ZAMPRONIO LUZ</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>BIANCA APARECIDA ZAMPRONIO LUZ</t>
+          <t>BLINDASEG CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>BLINDASEG CORRETORA DE SEGUROS L</t>
+          <t>CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>CAMPOS DE OLIVEIRA COR. DE SEGS.</t>
+          <t>DEX10 CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>DEX10 CORRETORA DE SEGUROS LTDA</t>
+          <t>F D DE OLIVEIRA CORRETAGEM DE SE</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>F D DE OLIVEIRA CORRETAGEM DE SE</t>
+          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>FERNANDO BORTOLLI CORRETORA DE S</t>
+          <t>HELENE TEZOTO CONS ADM COR SEG</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>HELENE TEZOTO CONS ADM COR SEG</t>
+          <t>J.D PIVA CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>J.D PIVA CORRETORA DE SEGUROS LT</t>
+          <t>JAMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>JAMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>KFS CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -15166,7 +15166,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>KFS CORRETORA DE SEGUROS LTDA.</t>
+          <t>KJ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>KJ CORRETORA DE SEGUROS LTDA</t>
+          <t>LID SILVA CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>LID SILVA CORRETORA DE SEGUROS L</t>
+          <t>M BUCK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>M BUCK CORRETORA DE SEGUROS LTDA</t>
+          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>MAFEROLI CORR. SEGUROS LTDA ME</t>
+          <t>NC CHAVES CORRETORA DE SEGUROS L</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>NC CHAVES CORRETORA DE SEGUROS L</t>
+          <t>PEDRO TADEU CHRIST</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>PEDRO TADEU CHRIST</t>
+          <t>PL4 CORRETORA DE SEGS E SERVICOS</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>PL4 CORRETORA DE SEGS E SERVICOS</t>
+          <t>PRIME RISKS CORRETORA DE SEG LTD</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>PRIME RISKS CORRETORA DE SEG LTD</t>
+          <t>RENATA CORRETORA DE SEGUROS SORO</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>RENATA CORRETORA DE SEGUROS SORO</t>
+          <t>RRPM COR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>RRPM COR DE SEGS LTDA ME</t>
+          <t>RWM CORR E ADM DE SEG LTDA</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>RWM CORR E ADM DE SEG LTDA</t>
+          <t>SIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>SIA CORRETORA DE SEGUROS LTDA</t>
+          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>SQUAGGIO CORRETORA DE SEGUROS LT</t>
+          <t>TORRINHA CORR DE SEGS LTDA ME</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>TORRINHA CORR DE SEGS LTDA ME</t>
+          <t>VLR SEGS E ASSISTENCIAS LTDA</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>VLR SEGS E ASSISTENCIAS LTDA</t>
+          <t>VOLBA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -15406,7 +15406,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>VOLBA CORRETORA DE SEGUROS LTDA</t>
+          <t>W CORRETORA E ADMINISTRADORA DE</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>W CORRETORA E ADMINISTRADORA DE</t>
+          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -15436,12 +15436,12 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>WRK PLURAL CORR E ADM DE SEGUROS</t>
+          <t>A.M.A. - BAURU COR.DE SEGS LTDA.</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>Stefhany Beatriz Carvalho</t>
+          <t>Talita Ariani Lopes Fabiano</t>
         </is>
       </c>
     </row>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>A.M.A. - BAURU COR.DE SEGS LTDA.</t>
+          <t>ABC - CORRETORA DE SEGUROS S/S L</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>ABC - CORRETORA DE SEGUROS S/S L</t>
+          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>ADESTRA BRU COR.DE SEGS.LTDA</t>
+          <t>ADRIANA R M GARCIA CORRETORA DE</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>ALESSANDRA SILVA DAMACENO</t>
+          <t>AG CORRETORA DE SEGUROS E SERVIC</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>ANGELA CARBONI CORRETORA DE SEGU</t>
+          <t>ALESSANDRA SILVA DAMACENO</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -15526,7 +15526,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>APAVERON CORRETORA DE SEGUROS LT</t>
+          <t>ANGELA CARBONI CORRETORA DE SEGU</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>BARINNI ADM. E COR. SEGS LTDA.</t>
+          <t>APAVERON CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -15556,7 +15556,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
+          <t>BARINNI ADM. E COR. SEGS LTDA.</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>BERTUZZO CORRE DE SEGS E PECAS L</t>
+          <t>BELMAR CORR.SEGS.E REPR.S/C LTDA</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -15586,7 +15586,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>CAMARGO PENTEADO COR.SEGS S/C LT</t>
+          <t>BERTUZZO CORRE DE SEGS E PECAS L</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
+          <t>C2L CORRETORA DE SEGUROS E NEG L</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>CARBANE COR DE SEGUROS LTDA ME</t>
+          <t>CAMARGO PENTEADO COR.SEGS S/C LT</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>CARLOS JOSE CORAZZA COR.DE SEGS</t>
+          <t>CAPPI &amp; MACHADO CORRETORA DE SEG</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>CARRER CORRETORA DE SEGUROS S/S</t>
+          <t>CARBANE COR DE SEGUROS LTDA ME</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>CENTRAL BAURU CORRETORA DE SEGS</t>
+          <t>CARLOS JOSE CORAZZA COR.DE SEGS</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>CHIQUINATTO PARENTI COR DE SEGS</t>
+          <t>CARRER CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>CINSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>CENTRAL BAURU CORRETORA DE SEGS</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>CONFIALLE CORR SEGS EIRELI EPP</t>
+          <t>CHIQUINATTO PARENTI COR DE SEGS</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>COPAIBA CORR E AGENTES DE SEGURO</t>
+          <t>CINSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
+          <t>CONFIALLE CORR SEGS EIRELI EPP</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>CORRETORA DOMINGUES DE SEGS LTDA</t>
+          <t>COPAIBA CORR E AGENTES DE SEGURO</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>CRISTIANO KRISTENSEN</t>
+          <t>CORRETO CORRETO COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>D.L. CORRETORA DE SEGUROS LTDA.</t>
+          <t>CORRETORA DOMINGUES DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>DANIEL DE ANDRADE GHIROTTI</t>
+          <t>CRISTIANO KRISTENSEN</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>EDINHO CORRETORA DE SEGUROS LTDA</t>
+          <t>D.L. CORRETORA DE SEGUROS LTDA.</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>FUNDAMENTAL COR.DE SEGUROS LTDA</t>
+          <t>DANIEL DE ANDRADE GHIROTTI</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
+          <t>EDINHO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
+          <t>FUNDAMENTAL COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -15871,7 +15871,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>JSJ CORRETORA DE SEGUROS LTDA</t>
+          <t>Fiz Corretora de Seguros LTDA</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>JVR ADM E COR DE SEGS LTDA</t>
+          <t>GARSEG CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>LIDER COR.DE SEGUROS S/C LTDA.</t>
+          <t>IDECOR IDEAL CORR.SEGS.S/C LTDA.</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>MACS MARILIA ADM E COR SEG LTDA</t>
+          <t>JP FRASSON FONCATTI TURCATO COR</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>MAFA CORRETORA DE SEGUROS LTDA</t>
+          <t>JSJ CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>MARCOS ANTONIO POMPOLINI PAIVA</t>
+          <t>JVR ADM E COR DE SEGS LTDA</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
+          <t>LIDER COR.DE SEGUROS S/C LTDA.</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>MOLAN CORRETORA DE SEGUROS LTDA</t>
+          <t>MACS MARILIA ADM E COR SEG LTDA</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
+          <t>MAFA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -16006,7 +16006,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
+          <t>MARCOS ANTONIO POMPOLINI PAIVA</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
+          <t>MINUCCI &amp; ZANUTO COR SEG LTDA</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>PAVANATO CORRETORA DE SEGUROS LT</t>
+          <t>MOLAN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>PERSONALITE ADM E COR DE SEGUROS</t>
+          <t>NICOLETTI &amp; ROMAGNOLLI COR SEGS</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>PHR. ADMINISTRATIVO E CORR DE SE</t>
+          <t>ONLINE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>PRA SEMPRE ADM CORR SEG SC LT</t>
+          <t>ONSITE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
+          <t>PAVANATO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>SABBAG COR.ADM.E CONSULT.DE SEGS</t>
+          <t>PERSONALITE ADM E COR DE SEGUROS</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>SENDER CORRETORA SEGS LTDA</t>
+          <t>PHR. ADMINISTRATIVO E CORR DE SE</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
+          <t>PRA SEMPRE ADM CORR SEG SC LT</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>SILVA &amp; ANDRADE CORR SEGS LTDA</t>
+          <t>RH CORRETORA DE SEGUROS S/C LTDA</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>SILVIO CARLOS DAVILA GONCALVES</t>
+          <t>SABBAG COR.ADM.E CONSULT.DE SEGS</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
+          <t>SENDER CORRETORA SEGS LTDA</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
+          <t>SERTAN COR E ADM DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
+          <t>SILVA &amp; ANDRADE CORR SEGS LTDA</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>TRISTAO DE BAURU CORR SEG. LTDA</t>
+          <t>SILVIO CARLOS DAVILA GONCALVES</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>V C CORRETORA DE SEGUROS LTDA</t>
+          <t>SOUZA &amp; CASTRO CORR.SEGUROS LTDA</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>VITALY COR DE SEG EIRELLI ME</t>
+          <t>TOP ALTA PROTECAO CORRETORA DE S</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -16276,10 +16276,70 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
+          <t>TRISEG CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>TRISTAO DE BAURU CORR SEG. LTDA</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>V C CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>VITALY COR DE SEG EIRELLI ME</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Talita Ariani Lopes Fabiano</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
           <t>WLADIMIR MAROTTA</t>
         </is>
       </c>
-      <c r="C1057" t="inlineStr">
+      <c r="C1061" t="inlineStr">
         <is>
           <t>Talita Ariani Lopes Fabiano</t>
         </is>
